--- a/results/results_minimal_requirements.xlsx
+++ b/results/results_minimal_requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="iCC390" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="iCC431" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="iCC464" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="iCC644" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="iCC389" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="iCC431" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="iCC470" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="iCC651" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -57,18 +57,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -451,7 +451,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1499974129726092</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="3">
@@ -461,7 +461,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1438456040013263</v>
+        <v>0.1279792850275254</v>
       </c>
     </row>
     <row r="4">
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1499974129726097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1499974129726106</v>
+        <v>0.1334525431033711</v>
       </c>
     </row>
     <row r="6">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1477041166606649</v>
+        <v>0.1314121997477149</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1491625565207064</v>
+        <v>0.1327097721819936</v>
       </c>
     </row>
     <row r="10">
@@ -577,7 +577,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>EX_glc__aD_e</t>
+          <t>EX_lcts_e</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1478222498444872</v>
+        <v>0.1315173027191183</v>
       </c>
     </row>
     <row r="17">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1499974129726108</v>
+        <v>0.133452543103336</v>
       </c>
     </row>
     <row r="20">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1497923303676384</v>
+        <v>0.1332700813219138</v>
       </c>
     </row>
     <row r="23">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1460338376451567</v>
+        <v>0.1299261542360378</v>
       </c>
     </row>
     <row r="25">
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1499974129726106</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="26">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.14999741297261</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="27">
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1499974129726097</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="32">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1494471263732473</v>
+        <v>0.1329629536853232</v>
       </c>
     </row>
     <row r="34">
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1499974129726097</v>
+        <v>0.1334525431033359</v>
       </c>
     </row>
     <row r="36">
@@ -791,17 +791,17 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1499974129726111</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>EX_lcts_e</t>
+          <t>EX_glc__aD_e</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1499974129726106</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="38">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1499974129726109</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="39">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.149997412972609</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="40">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.149997412972609</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="41">
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.149997412972611</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="42">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1499974129726103</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="43">
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.14999741297261</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="44">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.14999741297261</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="45">
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.149997412972611</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="46">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.1499974129726103</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="47">
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1499974129726092</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="48">
@@ -911,7 +911,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.14999741297261</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="49">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1499974129726092</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="50">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.1499974129726091</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="51">
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.1499974129726091</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="52">
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.149997412972609</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="53">
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.1499974129726103</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="54">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.149997412972609</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="55">
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1499974129726106</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="56">
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1499974129726091</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="57">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1499974129726097</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="58">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1499974129726103</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="59">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1499974129726092</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="60">
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.14999741297261</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="61">
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1499974129726092</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="62">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1499974129726091</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="63">
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1499974129726091</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="64">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.149997412972609</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="65">
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1499974129726103</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="66">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.149997412972609</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1499974129726106</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="68">
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1499974129726091</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="69">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1499974129726097</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="70">
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1499974129726103</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="71">
@@ -1141,7 +1141,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1499974129726092</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="72">
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.14999741297261</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="73">
@@ -1161,7 +1161,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1499974129726092</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="74">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1499974129726091</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="75">
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1499974129726091</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="76">
@@ -1191,7 +1191,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.149997412972609</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="77">
@@ -1201,11 +1201,11 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1499974129726103</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9599355516604957</v>
+        <v>0.9599355516604948</v>
       </c>
     </row>
     <row r="4">
@@ -1277,7 +1277,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.959935551660501</v>
+        <v>0.9599355516604959</v>
       </c>
     </row>
     <row r="7">
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9499861597780876</v>
+        <v>0.9499861597780899</v>
       </c>
     </row>
     <row r="9">
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9599355516605037</v>
+        <v>0.9599355516605024</v>
       </c>
     </row>
     <row r="10">
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.959890449941512</v>
+        <v>0.9598904499415107</v>
       </c>
     </row>
     <row r="17">
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9353517861954376</v>
+        <v>0.935351786196208</v>
       </c>
     </row>
     <row r="18">
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9599355516238426</v>
+        <v>0.959935551660773</v>
       </c>
     </row>
     <row r="19">
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9549961893851459</v>
+        <v>0.9549961893851434</v>
       </c>
     </row>
     <row r="20">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.959935551660501</v>
+        <v>0.9599355516605</v>
       </c>
     </row>
     <row r="21">
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.959935551660501</v>
+        <v>0.9599355516604992</v>
       </c>
     </row>
     <row r="22">
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.959507321583532</v>
+        <v>0.9595073215835282</v>
       </c>
     </row>
     <row r="23">
@@ -1457,7 +1457,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9466355276173223</v>
+        <v>0.9466355276173253</v>
       </c>
     </row>
     <row r="25">
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9599355516604986</v>
+        <v>0.959935551660501</v>
       </c>
     </row>
     <row r="26">
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.9599355516604959</v>
       </c>
     </row>
     <row r="27">
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.948716507578941</v>
+        <v>0.9487165075789397</v>
       </c>
     </row>
     <row r="28">
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.952687813092696</v>
+        <v>0.9526878130926981</v>
       </c>
     </row>
     <row r="29">
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.9536983332068045</v>
+        <v>0.9536983332068026</v>
       </c>
     </row>
     <row r="30">
@@ -1517,7 +1517,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.9585044486269961</v>
+        <v>0.9585044486269945</v>
       </c>
     </row>
     <row r="31">
@@ -1537,7 +1537,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.9500172167264344</v>
+        <v>0.9500172167264284</v>
       </c>
     </row>
     <row r="33">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.9494665968198107</v>
+        <v>0.9494665968198106</v>
       </c>
     </row>
     <row r="34">
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.959935551660501</v>
+        <v>0.9599355516604967</v>
       </c>
     </row>
     <row r="35">
@@ -1577,7 +1577,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.9301361339115245</v>
+        <v>0.9301361339115298</v>
       </c>
     </row>
     <row r="37">
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.9586036691791208</v>
+        <v>0.9586036691791237</v>
       </c>
     </row>
     <row r="38">
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.9444148413199801</v>
+        <v>0.9444148413199808</v>
       </c>
     </row>
     <row r="39">
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.959935551660493</v>
+        <v>0.9599355516604943</v>
       </c>
     </row>
     <row r="41">
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.9426647253939976</v>
+        <v>0.9426647253939953</v>
       </c>
     </row>
     <row r="42">
@@ -1637,7 +1637,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.9484216674828266</v>
+        <v>0.9484216674828315</v>
       </c>
     </row>
     <row r="43">
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.9468936649558064</v>
+        <v>0.9468936649558058</v>
       </c>
     </row>
     <row r="44">
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.9599355516604962</v>
       </c>
     </row>
     <row r="45">
@@ -1667,7 +1667,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.9599355516604966</v>
       </c>
     </row>
     <row r="46">
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.9599355516604962</v>
       </c>
     </row>
     <row r="47">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.959935551660497</v>
       </c>
     </row>
     <row r="48">
@@ -1697,7 +1697,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.959935551660497</v>
       </c>
     </row>
     <row r="49">
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.959935551660497</v>
       </c>
     </row>
     <row r="50">
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.9599355516604962</v>
       </c>
     </row>
     <row r="51">
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.9599355516604962</v>
       </c>
     </row>
     <row r="52">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.959935551660497</v>
       </c>
     </row>
     <row r="54">
@@ -1757,7 +1757,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.9599355516604958</v>
       </c>
     </row>
     <row r="55">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.959935551660497</v>
       </c>
     </row>
     <row r="56">
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.959935551660497</v>
       </c>
     </row>
     <row r="57">
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.959935551660497</v>
       </c>
     </row>
     <row r="58">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.9599355516604958</v>
       </c>
     </row>
     <row r="59">
@@ -1817,7 +1817,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.9599355516604958</v>
       </c>
     </row>
     <row r="61">
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.9599355516604995</v>
       </c>
     </row>
     <row r="62">
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.9599355516604962</v>
       </c>
     </row>
     <row r="63">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.9599355516604995</v>
       </c>
     </row>
     <row r="64">
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.9599355516604972</v>
       </c>
     </row>
     <row r="65">
@@ -1867,7 +1867,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.9599355516604995</v>
       </c>
     </row>
     <row r="66">
@@ -1877,7 +1877,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.9599355516605029</v>
       </c>
     </row>
     <row r="67">
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.9599355516604958</v>
       </c>
     </row>
     <row r="68">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.9599355516604993</v>
       </c>
     </row>
     <row r="69">
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.9599355516604959</v>
       </c>
     </row>
     <row r="70">
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.9599355516604959</v>
       </c>
     </row>
     <row r="71">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.959935551660501</v>
       </c>
     </row>
     <row r="72">
@@ -1937,7 +1937,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.9599355516604959</v>
       </c>
     </row>
     <row r="73">
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.9599355516604959</v>
       </c>
     </row>
     <row r="74">
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.959935551660497</v>
       </c>
     </row>
     <row r="75">
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.959935551660497</v>
       </c>
     </row>
     <row r="76">
@@ -1977,7 +1977,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.959935551660497</v>
       </c>
     </row>
     <row r="77">
@@ -1987,7 +1987,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.959935551660497</v>
       </c>
     </row>
     <row r="78">
@@ -1997,7 +1997,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.9599355516604959</v>
       </c>
     </row>
     <row r="79">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.9599355516604943</v>
       </c>
     </row>
     <row r="80">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.9599355516604995</v>
       </c>
     </row>
     <row r="81">
@@ -2027,7 +2027,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.959935551660497</v>
       </c>
     </row>
     <row r="82">
@@ -2037,7 +2037,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.9599355516604995</v>
       </c>
     </row>
     <row r="83">
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.9599355516604962</v>
       </c>
     </row>
     <row r="84">
@@ -2057,7 +2057,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.9599355516605</v>
       </c>
     </row>
     <row r="85">
@@ -2067,7 +2067,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.9599355516604947</v>
       </c>
     </row>
     <row r="86">
@@ -2077,7 +2077,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.959935551660497</v>
       </c>
     </row>
     <row r="87">
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.959935551660497</v>
       </c>
     </row>
     <row r="89">
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.959935551660497</v>
       </c>
     </row>
     <row r="90">
@@ -2127,7 +2127,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.9599355516604962</v>
       </c>
     </row>
     <row r="92">
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.959935551660498</v>
       </c>
     </row>
     <row r="93">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.9599355516604962</v>
       </c>
     </row>
     <row r="95">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.9599355516604943</v>
       </c>
     </row>
     <row r="96">
@@ -2177,7 +2177,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.959935551660497</v>
       </c>
     </row>
     <row r="97">
@@ -2187,7 +2187,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.959935551660497</v>
       </c>
     </row>
     <row r="98">
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.959935551660497</v>
       </c>
     </row>
     <row r="100">
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.959935551660497</v>
       </c>
     </row>
     <row r="101">
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.959935551660497</v>
       </c>
     </row>
     <row r="102">
@@ -2237,7 +2237,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.959935551660497</v>
       </c>
     </row>
     <row r="103">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.959935551660497</v>
       </c>
     </row>
     <row r="104">
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.9599355516604958</v>
       </c>
     </row>
     <row r="105">
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.959935551660497</v>
       </c>
     </row>
     <row r="106">
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.959935551660497</v>
       </c>
     </row>
     <row r="107">
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.959935551660497</v>
       </c>
     </row>
     <row r="108">
@@ -2297,7 +2297,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.959935551660497</v>
       </c>
     </row>
     <row r="109">
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.959935551660497</v>
       </c>
     </row>
     <row r="110">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.9599355516604992</v>
+        <v>0.9599355516604995</v>
       </c>
     </row>
     <row r="111">
@@ -2611,7 +2611,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -2643,7 +2643,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7891065620336826</v>
+        <v>0.7891065620336786</v>
       </c>
     </row>
     <row r="3">
@@ -2663,7 +2663,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7923651486769325</v>
+        <v>0.7923651486769322</v>
       </c>
     </row>
     <row r="5">
@@ -2693,7 +2693,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8028664160496786</v>
+        <v>0.8028664160496788</v>
       </c>
     </row>
     <row r="8">
@@ -2703,7 +2703,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8028664160496786</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="9">
@@ -2733,7 +2733,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8028664160496785</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="12">
@@ -2743,7 +2743,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8028664160496786</v>
+        <v>0.8028664160496782</v>
       </c>
     </row>
     <row r="13">
@@ -2753,7 +2753,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7903251678446948</v>
+        <v>0.7903251678446946</v>
       </c>
     </row>
     <row r="14">
@@ -2813,7 +2813,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8028664160496786</v>
+        <v>0.8028664160496789</v>
       </c>
     </row>
     <row r="20">
@@ -2833,7 +2833,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8028664160496788</v>
+        <v>0.8028664160496786</v>
       </c>
     </row>
     <row r="22">
@@ -2873,7 +2873,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.7960639170575395</v>
+        <v>0.7960639170575394</v>
       </c>
     </row>
     <row r="26">
@@ -2953,7 +2953,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.8028664160496777</v>
+        <v>0.8028664160496786</v>
       </c>
     </row>
     <row r="34">
@@ -2993,7 +2993,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.8024448780450921</v>
+        <v>0.8024448780450923</v>
       </c>
     </row>
     <row r="38">
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.7911654076940955</v>
+        <v>0.7911654076940948</v>
       </c>
     </row>
     <row r="43">
@@ -3053,7 +3053,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.8028664160496785</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="44">
@@ -3063,7 +3063,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.8028664160496785</v>
+        <v>0.8028664160496789</v>
       </c>
     </row>
     <row r="45">
@@ -3073,7 +3073,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496786</v>
       </c>
     </row>
     <row r="46">
@@ -3083,7 +3083,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="47">
@@ -3093,7 +3093,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="48">
@@ -3103,7 +3103,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="49">
@@ -3113,7 +3113,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="50">
@@ -3123,7 +3123,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="51">
@@ -3133,7 +3133,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="52">
@@ -3143,7 +3143,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="53">
@@ -3153,7 +3153,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="54">
@@ -3163,7 +3163,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="55">
@@ -3173,7 +3173,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="56">
@@ -3183,7 +3183,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="57">
@@ -3193,7 +3193,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="58">
@@ -3203,7 +3203,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="59">
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="60">
@@ -3223,7 +3223,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="61">
@@ -3233,7 +3233,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="62">
@@ -3243,7 +3243,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="63">
@@ -3253,7 +3253,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="64">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="65">
@@ -3273,7 +3273,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="66">
@@ -3283,7 +3283,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="67">
@@ -3293,7 +3293,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="68">
@@ -3303,7 +3303,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="69">
@@ -3313,7 +3313,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="70">
@@ -3323,7 +3323,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="71">
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="72">
@@ -3343,7 +3343,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="73">
@@ -3353,7 +3353,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="74">
@@ -3363,7 +3363,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="75">
@@ -3373,7 +3373,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="76">
@@ -3383,7 +3383,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="77">
@@ -3393,7 +3393,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="78">
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="79">
@@ -3413,7 +3413,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="80">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="81">
@@ -3433,7 +3433,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="82">
@@ -3443,7 +3443,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="83">
@@ -3453,7 +3453,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="84">
@@ -3463,7 +3463,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="85">
@@ -3473,7 +3473,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="86">
@@ -3483,7 +3483,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="87">
@@ -3493,7 +3493,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="88">
@@ -3503,7 +3503,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="89">
@@ -3513,7 +3513,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="90">
@@ -3523,7 +3523,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="91">
@@ -3533,7 +3533,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="92">
@@ -3543,7 +3543,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="93">
@@ -3553,7 +3553,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="94">
@@ -3563,7 +3563,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="95">
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="96">
@@ -3583,7 +3583,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="97">
@@ -3593,7 +3593,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="98">
@@ -3603,7 +3603,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="99">
@@ -3613,7 +3613,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="100">
@@ -3623,7 +3623,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="101">
@@ -3633,7 +3633,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="102">
@@ -3643,7 +3643,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="103">
@@ -3653,7 +3653,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="104">
@@ -3663,7 +3663,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="105">
@@ -3673,7 +3673,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="106">
@@ -3683,7 +3683,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
     <row r="107">
@@ -3693,11 +3693,11 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.8028664160496782</v>
+        <v>0.8028664160496783</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -3707,7 +3707,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B136"/>
+  <dimension ref="A1:B137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3729,7 +3729,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="3">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2818745454345508</v>
+        <v>0.2932422619943197</v>
       </c>
     </row>
     <row r="4">
@@ -3779,7 +3779,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.307412781258394</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="8">
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.2910726415795402</v>
       </c>
     </row>
     <row r="9">
@@ -3799,7 +3799,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="10">
@@ -3819,7 +3819,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3074127812583927</v>
+        <v>0.3167956982730827</v>
       </c>
     </row>
     <row r="12">
@@ -3879,7 +3879,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3074127812583942</v>
+        <v>0.3167956982730808</v>
       </c>
     </row>
     <row r="18">
@@ -3889,7 +3889,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3000509587014621</v>
+        <v>0.3093417094810177</v>
       </c>
     </row>
     <row r="19">
@@ -3899,7 +3899,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.05043421551599279</v>
       </c>
     </row>
     <row r="20">
@@ -3909,7 +3909,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3074127812583987</v>
+        <v>0.3077682761953001</v>
       </c>
     </row>
     <row r="21">
@@ -3929,7 +3929,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3016202906824065</v>
+        <v>0.3031150326334918</v>
       </c>
     </row>
     <row r="23">
@@ -3939,7 +3939,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3029341568228111</v>
+        <v>0.3041745317278171</v>
       </c>
     </row>
     <row r="24">
@@ -3949,7 +3949,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3073357469623396</v>
+        <v>0.3130409577793541</v>
       </c>
     </row>
     <row r="25">
@@ -3959,7 +3959,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3074127812583926</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="26">
@@ -3969,7 +3969,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3060892292274505</v>
+        <v>0.3152237567343074</v>
       </c>
     </row>
     <row r="27">
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3095662209049158</v>
       </c>
     </row>
     <row r="28">
@@ -3989,7 +3989,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3035831411185684</v>
+        <v>0.3127616688854793</v>
       </c>
     </row>
     <row r="29">
@@ -4019,7 +4019,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.306153579868176</v>
+        <v>0.3157073685763453</v>
       </c>
     </row>
     <row r="32">
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3069960348003771</v>
+        <v>0.3166988434888306</v>
       </c>
     </row>
     <row r="33">
@@ -4049,7 +4049,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.3069406666737878</v>
+        <v>0.3167956982730827</v>
       </c>
     </row>
     <row r="35">
@@ -4059,7 +4059,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.307412781258394</v>
+        <v>0.3023367435367466</v>
       </c>
     </row>
     <row r="36">
@@ -4069,7 +4069,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.3053095816248081</v>
+        <v>0.2951072661685819</v>
       </c>
     </row>
     <row r="37">
@@ -4109,7 +4109,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3074127812583939</v>
+        <v>0.3167956982730805</v>
       </c>
     </row>
     <row r="41">
@@ -4119,7 +4119,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="42">
@@ -4129,7 +4129,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="43">
@@ -4139,7 +4139,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="44">
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="45">
@@ -4159,7 +4159,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="46">
@@ -4169,7 +4169,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="47">
@@ -4179,7 +4179,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="48">
@@ -4189,7 +4189,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="49">
@@ -4199,7 +4199,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="50">
@@ -4209,7 +4209,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="51">
@@ -4219,7 +4219,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="52">
@@ -4229,7 +4229,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="53">
@@ -4239,7 +4239,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="54">
@@ -4249,7 +4249,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="55">
@@ -4259,7 +4259,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="56">
@@ -4269,7 +4269,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="57">
@@ -4279,7 +4279,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="58">
@@ -4289,7 +4289,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="59">
@@ -4299,7 +4299,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="60">
@@ -4309,7 +4309,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="61">
@@ -4319,7 +4319,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="62">
@@ -4329,7 +4329,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="63">
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="64">
@@ -4349,7 +4349,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="65">
@@ -4359,7 +4359,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="66">
@@ -4369,7 +4369,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="67">
@@ -4379,7 +4379,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="68">
@@ -4389,7 +4389,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="69">
@@ -4399,7 +4399,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="70">
@@ -4409,7 +4409,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="71">
@@ -4419,7 +4419,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="72">
@@ -4429,7 +4429,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="73">
@@ -4439,7 +4439,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="74">
@@ -4449,7 +4449,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="75">
@@ -4459,7 +4459,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="76">
@@ -4469,7 +4469,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="77">
@@ -4479,7 +4479,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="78">
@@ -4489,7 +4489,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="79">
@@ -4499,7 +4499,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="80">
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="81">
@@ -4519,7 +4519,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="82">
@@ -4529,7 +4529,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="83">
@@ -4539,7 +4539,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="84">
@@ -4549,7 +4549,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="85">
@@ -4559,7 +4559,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="86">
@@ -4569,7 +4569,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="87">
@@ -4579,7 +4579,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="88">
@@ -4589,7 +4589,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="89">
@@ -4599,7 +4599,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="90">
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="91">
@@ -4619,7 +4619,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="92">
@@ -4629,7 +4629,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="93">
@@ -4639,7 +4639,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="94">
@@ -4649,7 +4649,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="95">
@@ -4659,7 +4659,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="96">
@@ -4669,7 +4669,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="97">
@@ -4679,7 +4679,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="98">
@@ -4689,7 +4689,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="99">
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="100">
@@ -4709,7 +4709,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="101">
@@ -4719,7 +4719,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="102">
@@ -4729,7 +4729,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="103">
@@ -4739,7 +4739,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="104">
@@ -4749,7 +4749,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="105">
@@ -4759,7 +4759,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="106">
@@ -4769,310 +4769,320 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>EX_malt_e</t>
+          <t>EX_alac__S_e</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>EX_man_e</t>
+          <t>EX_malt_e</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>EX_mana_e</t>
+          <t>EX_man_e</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>EX_melib_e</t>
+          <t>EX_mana_e</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>EX_mnl_e</t>
+          <t>EX_melib_e</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>EX_mthgxl_e</t>
+          <t>EX_mnl_e</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>EX_mththf_e</t>
+          <t>EX_mthgxl_e</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>EX_nmn_e</t>
+          <t>EX_mththf_e</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>EX_o2_e</t>
+          <t>EX_nmn_e</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>EX_ocdca_e</t>
+          <t>EX_o2_e</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>EX_ocdcea_e</t>
+          <t>EX_ocdca_e</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>EX_orn__L_e</t>
+          <t>EX_ocdcea_e</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>EX_orot_e</t>
+          <t>EX_orn__L_e</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>EX_oxa_e</t>
+          <t>EX_orot_e</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>EX_ppi_e</t>
+          <t>EX_oxa_e</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>EX_ptrc_e</t>
+          <t>EX_ppi_e</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>EX_rib__D_e</t>
+          <t>EX_ptrc_e</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>EX_rmn_e</t>
+          <t>EX_rib__D_e</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>EX_salcn_e</t>
+          <t>EX_rmn_e</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>EX_sbt__D_e</t>
+          <t>EX_salcn_e</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>EX_srb__L_e</t>
+          <t>EX_sbt__D_e</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>EX_succ_e</t>
+          <t>EX_srb__L_e</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>EX_sucr_e</t>
+          <t>EX_succ_e</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>EX_tag__D_e</t>
+          <t>EX_sucr_e</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>EX_tetdecacid_e</t>
+          <t>EX_tag__D_e</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>EX_thymd_e</t>
+          <t>EX_tetdecacid_e</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>EX_tre_e</t>
+          <t>EX_thymd_e</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>EX_tsul_e</t>
+          <t>EX_tre_e</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>EX_xan_e</t>
+          <t>EX_tsul_e</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.3074127812583928</v>
+        <v>0.3167956982730806</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
+          <t>EX_xan_e</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0.3167956982730806</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
           <t>EX_xylt_e</t>
         </is>
       </c>
-      <c r="B136" t="n">
-        <v>0.3074127812583928</v>
+      <c r="B137" t="n">
+        <v>0.3167956982730806</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>